--- a/TEST I/zadania TEST_v1.xlsx
+++ b/TEST I/zadania TEST_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\OneDrive\Desktop\Szkolenie EXCEL\1 Grupa szkolenie EXCEL\26.07.2023\test\MOS I - uczestnicy\TEST I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF9998-B601-4116-A3CB-1CB33AEE3666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE16CA3D-DEF5-44F0-9826-6311C918D9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{AA888DB8-8012-4FD5-903E-2F443823655D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AA888DB8-8012-4FD5-903E-2F443823655D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sekcja 3" sheetId="1" r:id="rId1"/>
@@ -517,6 +517,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>248738</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>554899</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>67220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6A0BC5-54C2-3DF6-806C-E0B4C1AB3449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6984274" y="4737191"/>
+          <a:ext cx="2143125" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1062,6 +1112,67 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>125896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46383</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Prostokąt 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256BC324-7451-42D2-0C6E-D5FB85D7F2A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8070574" y="7918174"/>
+          <a:ext cx="1987826" cy="145774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1581,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B51D6-6641-4AB5-AE8B-A3C448AD6817}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2635,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7566772D-C5F5-4AA8-AF3A-896E8A44E7C3}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
